--- a/edfis_502.xlsx
+++ b/edfis_502.xlsx
@@ -11,205 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DIANA RODRIGUES DORNELAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ROGÉRIO TAUÃ MELLO MACHADO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JOSEANA VIEIRA DE SOUZA FREGUGLIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FABIANO JULIO MUNIZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FERNANDA TAGLIATI VARGAS DIAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FERNANDA PEÇANHA MARQUES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALINE CRISTINA SÁ DE MELO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>RAFAEL ALTINO CASSIANO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>BRUNA DE ARAÚJO CORDEIRO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>HELENO DE SOUZA OLIVEIRA JÚNIOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>IVANYR TEIXEIRA DE SOUZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LUCAS EMANUEL DE OLIVEIRA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JEAN PHILLIP ALBUQUERQUE DA LUZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FABRICIO SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>HIAGO LEANDRO RODRIGUES DE SOUZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCELA CUNHA GUIMARAES TAVARES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ANDERSON AGUSTINHO DA COSTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LUÍS ALBERTO DA CRUZ BERNARDO</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -307,6 +109,94 @@
         <sz val="10.0"/>
       </rPr>
       <t>CLAUDILAINNY APARECIDA DE OLIVEIRA DEGAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>JEAN GUTIERREZ P. CALIXTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>JORGE LUIZ GERALDO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ROSANGELA MARIA DE OLIVEIRA DA SILVA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>WILSON DE OLIVEIRA CARDOSO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>GERALDO ELIAS MATIOLI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>GUSTAVO PARANÁ PAES BRAZIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>CRISTIANE DOS SANTOS TERRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ERICA DOS SANTOS VITORINO BENVINDO</t>
     </r>
   </si>
   <si>
@@ -317,6 +207,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -335,8 +228,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,24 +262,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,259 +492,150 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.5"/>
-    <col customWidth="1" min="2" max="2" width="54.75"/>
+    <col customWidth="1" min="2" max="2" width="27.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>306.0</v>
+        <v>326.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>307.0</v>
+        <v>327.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>308.0</v>
+        <v>328.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>309.0</v>
+        <v>329.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>310.0</v>
+        <v>330.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>311.0</v>
+        <v>331.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>312.0</v>
+        <v>332.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>313.0</v>
+        <v>333.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>314.0</v>
+        <v>334.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>315.0</v>
+        <v>335.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>316.0</v>
+        <v>336.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>319.0</v>
+        <v>337.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>320.0</v>
+        <v>338.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>321.0</v>
+        <v>339.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>322.0</v>
+        <v>340.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>323.0</v>
+        <v>341.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>324.0</v>
+        <v>342.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>325.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>326.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>327.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>328.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>329.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>330.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>331.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>332.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>333.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>334.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
